--- a/Code/Results/Cases/Case_0_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9558874816218257</v>
+        <v>1.014515734379126</v>
       </c>
       <c r="D2">
-        <v>0.9647564698279419</v>
+        <v>1.017160917744017</v>
       </c>
       <c r="E2">
-        <v>0.9680187009445452</v>
+        <v>1.016247304167528</v>
       </c>
       <c r="F2">
-        <v>0.9721585027552625</v>
+        <v>1.025669361290694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043189199179678</v>
+        <v>1.025718333119251</v>
       </c>
       <c r="J2">
-        <v>0.9794726940887365</v>
+        <v>1.019746526450355</v>
       </c>
       <c r="K2">
-        <v>0.9767296638900071</v>
+        <v>1.020010933592147</v>
       </c>
       <c r="L2">
-        <v>0.9799423294085067</v>
+        <v>1.019100044737615</v>
       </c>
       <c r="M2">
-        <v>0.9840198414022937</v>
+        <v>1.028494255553923</v>
       </c>
       <c r="N2">
-        <v>0.9808636576614308</v>
+        <v>1.021194683484476</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9629727256347502</v>
+        <v>1.015942431034938</v>
       </c>
       <c r="D3">
-        <v>0.9711087483549776</v>
+        <v>1.018499098826531</v>
       </c>
       <c r="E3">
-        <v>0.9738430180646807</v>
+        <v>1.017473029416238</v>
       </c>
       <c r="F3">
-        <v>0.979547393939302</v>
+        <v>1.027163534987985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043700839265888</v>
+        <v>1.025712513985777</v>
       </c>
       <c r="J3">
-        <v>0.9845263397503907</v>
+        <v>1.020805312090053</v>
       </c>
       <c r="K3">
-        <v>0.9821251503819713</v>
+        <v>1.021153178957294</v>
       </c>
       <c r="L3">
-        <v>0.9848218962465619</v>
+        <v>1.020129944729006</v>
       </c>
       <c r="M3">
-        <v>0.9904488358734497</v>
+        <v>1.029793918524472</v>
       </c>
       <c r="N3">
-        <v>0.9859244800795859</v>
+        <v>1.022254972721227</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.967423613172365</v>
+        <v>1.016864741584167</v>
       </c>
       <c r="D4">
-        <v>0.9751062253300802</v>
+        <v>1.019364497503446</v>
       </c>
       <c r="E4">
-        <v>0.9775093419880374</v>
+        <v>1.018265668587749</v>
       </c>
       <c r="F4">
-        <v>0.9841824933912491</v>
+        <v>1.028127783493812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044003104844839</v>
+        <v>1.02570617741944</v>
       </c>
       <c r="J4">
-        <v>0.9876990007686575</v>
+        <v>1.021489217222405</v>
       </c>
       <c r="K4">
-        <v>0.9855146810431188</v>
+        <v>1.021891272667994</v>
       </c>
       <c r="L4">
-        <v>0.987887008729681</v>
+        <v>1.020795324697716</v>
       </c>
       <c r="M4">
-        <v>0.9944756465269997</v>
+        <v>1.030631820601973</v>
       </c>
       <c r="N4">
-        <v>0.9891016466404079</v>
+        <v>1.022939849077312</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9692645613920295</v>
+        <v>1.017252281974536</v>
       </c>
       <c r="D5">
-        <v>0.976761236295535</v>
+        <v>1.0197281979913</v>
       </c>
       <c r="E5">
-        <v>0.9790274830461226</v>
+        <v>1.018598781937172</v>
       </c>
       <c r="F5">
-        <v>0.9860979261091378</v>
+        <v>1.028532541319648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044123411347449</v>
+        <v>1.025702897401982</v>
       </c>
       <c r="J5">
-        <v>0.9890107066360134</v>
+        <v>1.021776448032499</v>
       </c>
       <c r="K5">
-        <v>0.9869165930330585</v>
+        <v>1.022201328780118</v>
       </c>
       <c r="L5">
-        <v>0.9891546525115527</v>
+        <v>1.021074806907096</v>
       </c>
       <c r="M5">
-        <v>0.9961381894049339</v>
+        <v>1.030983345366157</v>
       </c>
       <c r="N5">
-        <v>0.9904152152805502</v>
+        <v>1.023227487788102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9695719433621056</v>
+        <v>1.017317340227731</v>
       </c>
       <c r="D6">
-        <v>0.9770376640815035</v>
+        <v>1.019789258419248</v>
       </c>
       <c r="E6">
-        <v>0.9792810629842582</v>
+        <v>1.018654706685745</v>
       </c>
       <c r="F6">
-        <v>0.9864176403079181</v>
+        <v>1.028600466205797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044143218106077</v>
+        <v>1.02570231052569</v>
       </c>
       <c r="J6">
-        <v>0.9892296869761475</v>
+        <v>1.021824658886026</v>
       </c>
       <c r="K6">
-        <v>0.9871506646530648</v>
+        <v>1.022253374714305</v>
       </c>
       <c r="L6">
-        <v>0.9893663002909113</v>
+        <v>1.021121719036624</v>
       </c>
       <c r="M6">
-        <v>0.9964156020145515</v>
+        <v>1.031042325298096</v>
       </c>
       <c r="N6">
-        <v>0.9906345065978848</v>
+        <v>1.02327576710657</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9674483284129133</v>
+        <v>1.016869920691797</v>
       </c>
       <c r="D7">
-        <v>0.9751284380922642</v>
+        <v>1.0193693577253</v>
       </c>
       <c r="E7">
-        <v>0.9775297168681253</v>
+        <v>1.018270120099869</v>
       </c>
       <c r="F7">
-        <v>0.9842082155465863</v>
+        <v>1.028133194286379</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044004738809262</v>
+        <v>1.025706136013405</v>
       </c>
       <c r="J7">
-        <v>0.9877166130531356</v>
+        <v>1.021493056320814</v>
       </c>
       <c r="K7">
-        <v>0.9855335023738526</v>
+        <v>1.02189541658435</v>
       </c>
       <c r="L7">
-        <v>0.9879040278155486</v>
+        <v>1.020799060104593</v>
       </c>
       <c r="M7">
-        <v>0.9944979787148225</v>
+        <v>1.030636520552732</v>
       </c>
       <c r="N7">
-        <v>0.9891192839363502</v>
+        <v>1.022943693627681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9583108054864028</v>
+        <v>1.014998074589893</v>
       </c>
       <c r="D8">
-        <v>0.9669275621864732</v>
+        <v>1.017613267686982</v>
       </c>
       <c r="E8">
-        <v>0.9700090965057611</v>
+        <v>1.016661647274152</v>
       </c>
       <c r="F8">
-        <v>0.9746869723155576</v>
+        <v>1.026174862394676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043368154896315</v>
+        <v>1.025716898558997</v>
       </c>
       <c r="J8">
-        <v>0.9812015375557263</v>
+        <v>1.020104599114523</v>
       </c>
       <c r="K8">
-        <v>0.9785749729908381</v>
+        <v>1.020397173793071</v>
       </c>
       <c r="L8">
-        <v>0.9816112449825131</v>
+        <v>1.019448320848024</v>
       </c>
       <c r="M8">
-        <v>0.9862211042592417</v>
+        <v>1.028934120712789</v>
       </c>
       <c r="N8">
-        <v>0.9825949562844448</v>
+        <v>1.021553264652899</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9410946432946614</v>
+        <v>1.011692789586293</v>
       </c>
       <c r="D9">
-        <v>0.9515377993358409</v>
+        <v>1.014514798357592</v>
       </c>
       <c r="E9">
-        <v>0.9559062855900455</v>
+        <v>1.013823382982949</v>
       </c>
       <c r="F9">
-        <v>0.9567017842623269</v>
+        <v>1.022703994053582</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042019365992608</v>
+        <v>1.025716195644615</v>
       </c>
       <c r="J9">
-        <v>0.9689138759579945</v>
+        <v>1.017648573175214</v>
       </c>
       <c r="K9">
-        <v>0.9654693297797275</v>
+        <v>1.017749094304407</v>
       </c>
       <c r="L9">
-        <v>0.9697576985875572</v>
+        <v>1.017060042384645</v>
       </c>
       <c r="M9">
-        <v>0.9705387103887312</v>
+        <v>1.025910564019418</v>
       </c>
       <c r="N9">
-        <v>0.9702898447978299</v>
+        <v>1.019093750875045</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9287250026948531</v>
+        <v>1.009484258547581</v>
       </c>
       <c r="D10">
-        <v>0.9405297732543636</v>
+        <v>1.012446127802575</v>
       </c>
       <c r="E10">
-        <v>0.9458283361169103</v>
+        <v>1.011928283348431</v>
       </c>
       <c r="F10">
-        <v>0.9437588766123464</v>
+        <v>1.020376235852606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040957238882508</v>
+        <v>1.02570253460563</v>
       </c>
       <c r="J10">
-        <v>0.9600825900145082</v>
+        <v>1.016004634410336</v>
       </c>
       <c r="K10">
-        <v>0.9560627411792506</v>
+        <v>1.015978047787012</v>
       </c>
       <c r="L10">
-        <v>0.9612497695370559</v>
+        <v>1.015462151133398</v>
       </c>
       <c r="M10">
-        <v>0.9592236748996922</v>
+        <v>1.023878601063714</v>
       </c>
       <c r="N10">
-        <v>0.9614460174153414</v>
+        <v>1.017447477528559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.92311957160053</v>
+        <v>1.008526662915644</v>
       </c>
       <c r="D11">
-        <v>0.9355549994134688</v>
+        <v>1.011549580244184</v>
       </c>
       <c r="E11">
-        <v>0.9412767902844666</v>
+        <v>1.011106927608108</v>
       </c>
       <c r="F11">
-        <v>0.9378913875195009</v>
+        <v>1.019364922060666</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040455963222358</v>
+        <v>1.025693496169847</v>
       </c>
       <c r="J11">
-        <v>0.9560814453569707</v>
+        <v>1.015291165930345</v>
       </c>
       <c r="K11">
-        <v>0.9518039602167575</v>
+        <v>1.015209756964894</v>
       </c>
       <c r="L11">
-        <v>0.9573981443988997</v>
+        <v>1.014768835397501</v>
       </c>
       <c r="M11">
-        <v>0.954087991962609</v>
+        <v>1.022994810329474</v>
       </c>
       <c r="N11">
-        <v>0.9574391906734524</v>
+        <v>1.01673299584149</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9209962792256624</v>
+        <v>1.008170768101115</v>
       </c>
       <c r="D12">
-        <v>0.9336728262545038</v>
+        <v>1.011216436068369</v>
       </c>
       <c r="E12">
-        <v>0.9395552410395045</v>
+        <v>1.010801719038985</v>
       </c>
       <c r="F12">
-        <v>0.9356687364861088</v>
+        <v>1.018988759944971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040263282644575</v>
+        <v>1.025689670088849</v>
       </c>
       <c r="J12">
-        <v>0.9545661146636675</v>
+        <v>1.01502590131766</v>
       </c>
       <c r="K12">
-        <v>0.9501915116609455</v>
+        <v>1.014924161077123</v>
       </c>
       <c r="L12">
-        <v>0.9559399251422848</v>
+        <v>1.014511088918054</v>
       </c>
       <c r="M12">
-        <v>0.95214170290705</v>
+        <v>1.022665933168186</v>
       </c>
       <c r="N12">
-        <v>0.9559217080367536</v>
+        <v>1.016467354522629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9214536619254046</v>
+        <v>1.008247117975416</v>
       </c>
       <c r="D13">
-        <v>0.9340781651086943</v>
+        <v>1.011287902451848</v>
       </c>
       <c r="E13">
-        <v>0.9399259648742855</v>
+        <v>1.010867192854159</v>
       </c>
       <c r="F13">
-        <v>0.9361475222063195</v>
+        <v>1.019069471427794</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040304911440191</v>
+        <v>1.025690512004175</v>
       </c>
       <c r="J13">
-        <v>0.9548925204026123</v>
+        <v>1.015082812907864</v>
       </c>
       <c r="K13">
-        <v>0.9505388162190955</v>
+        <v>1.014985432343158</v>
       </c>
       <c r="L13">
-        <v>0.9562540065252759</v>
+        <v>1.014566386366101</v>
       </c>
       <c r="M13">
-        <v>0.9525609941150137</v>
+        <v>1.022736505596643</v>
       </c>
       <c r="N13">
-        <v>0.9562485773092873</v>
+        <v>1.01652434693382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9229449231727905</v>
+        <v>1.008497248688079</v>
       </c>
       <c r="D14">
-        <v>0.9354001375411531</v>
+        <v>1.011522045060138</v>
       </c>
       <c r="E14">
-        <v>0.9411351337753703</v>
+        <v>1.011081701462394</v>
       </c>
       <c r="F14">
-        <v>0.9377085668636169</v>
+        <v>1.019333838935127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0404401701535</v>
+        <v>1.025693189465947</v>
       </c>
       <c r="J14">
-        <v>0.955956797586034</v>
+        <v>1.015269244219557</v>
       </c>
       <c r="K14">
-        <v>0.9516713144969466</v>
+        <v>1.015186154009716</v>
       </c>
       <c r="L14">
-        <v>0.9572781844673232</v>
+        <v>1.014747534472642</v>
       </c>
       <c r="M14">
-        <v>0.9539279198437457</v>
+        <v>1.022967637475574</v>
       </c>
       <c r="N14">
-        <v>0.9573143658883835</v>
+        <v>1.016711042999359</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9238581606269437</v>
+        <v>1.008651335586056</v>
       </c>
       <c r="D15">
-        <v>0.936210002802693</v>
+        <v>1.011666291095762</v>
       </c>
       <c r="E15">
-        <v>0.9418759609451725</v>
+        <v>1.011213851165168</v>
       </c>
       <c r="F15">
-        <v>0.938664534686562</v>
+        <v>1.019496655995158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040522639584185</v>
+        <v>1.025694777029423</v>
       </c>
       <c r="J15">
-        <v>0.9566085932699862</v>
+        <v>1.0153840773264</v>
       </c>
       <c r="K15">
-        <v>0.9523649507718368</v>
+        <v>1.015309796131759</v>
       </c>
       <c r="L15">
-        <v>0.9579054868620145</v>
+        <v>1.01485911674117</v>
       </c>
       <c r="M15">
-        <v>0.9547649015867262</v>
+        <v>1.023109966030379</v>
       </c>
       <c r="N15">
-        <v>0.957967087196969</v>
+        <v>1.016826039182385</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9290914571473716</v>
+        <v>1.009547783234548</v>
       </c>
       <c r="D16">
-        <v>0.940855295348241</v>
+        <v>1.012505611322986</v>
       </c>
       <c r="E16">
-        <v>0.9461262296681033</v>
+        <v>1.011982777433198</v>
       </c>
       <c r="F16">
-        <v>0.9441424363645142</v>
+        <v>1.020443281588223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040989613128265</v>
+        <v>1.025703068691744</v>
       </c>
       <c r="J16">
-        <v>0.9603441935907638</v>
+        <v>1.016051950112728</v>
       </c>
       <c r="K16">
-        <v>0.9563412521070458</v>
+        <v>1.016029006397017</v>
       </c>
       <c r="L16">
-        <v>0.9615016621699566</v>
+        <v>1.015508133902475</v>
       </c>
       <c r="M16">
-        <v>0.9595592748028714</v>
+        <v>1.023937171844764</v>
       </c>
       <c r="N16">
-        <v>0.9617079924986816</v>
+        <v>1.017494860424676</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9323049415764636</v>
+        <v>1.010109751083007</v>
       </c>
       <c r="D17">
-        <v>0.9437113951802054</v>
+        <v>1.013031876180644</v>
       </c>
       <c r="E17">
-        <v>0.9487402540575572</v>
+        <v>1.012464895838376</v>
       </c>
       <c r="F17">
-        <v>0.9475056903044408</v>
+        <v>1.021036164875737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041271278619458</v>
+        <v>1.025707433980311</v>
       </c>
       <c r="J17">
-        <v>0.9626383385036748</v>
+        <v>1.016470448266561</v>
       </c>
       <c r="K17">
-        <v>0.9587840068462982</v>
+        <v>1.016479764860676</v>
       </c>
       <c r="L17">
-        <v>0.9637109901835871</v>
+        <v>1.015914861943557</v>
       </c>
       <c r="M17">
-        <v>0.9625013045729149</v>
+        <v>1.024454997566233</v>
       </c>
       <c r="N17">
-        <v>0.9640053953605107</v>
+        <v>1.01791395289389</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9341555364877429</v>
+        <v>1.010437413762242</v>
       </c>
       <c r="D18">
-        <v>0.9453574442748892</v>
+        <v>1.013338760856178</v>
       </c>
       <c r="E18">
-        <v>0.9502470572445357</v>
+        <v>1.012746033903416</v>
       </c>
       <c r="F18">
-        <v>0.9494423042635981</v>
+        <v>1.021381658139332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041431597945417</v>
+        <v>1.025709678817867</v>
       </c>
       <c r="J18">
-        <v>0.9639595694626103</v>
+        <v>1.016714394051073</v>
       </c>
       <c r="K18">
-        <v>0.9601911070327659</v>
+        <v>1.016742548413554</v>
       </c>
       <c r="L18">
-        <v>0.9649836550071057</v>
+        <v>1.016151963029983</v>
       </c>
       <c r="M18">
-        <v>0.9641947871066616</v>
+        <v>1.024756657086487</v>
       </c>
       <c r="N18">
-        <v>0.9653285026189552</v>
+        <v>1.018158245109397</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9347826139663921</v>
+        <v>1.010549117528</v>
       </c>
       <c r="D19">
-        <v>0.9459154207448099</v>
+        <v>1.013443387779851</v>
       </c>
       <c r="E19">
-        <v>0.9507578761313349</v>
+        <v>1.012841882427299</v>
       </c>
       <c r="F19">
-        <v>0.9500984833148969</v>
+        <v>1.02149940742302</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041485596691586</v>
+        <v>1.025710393120453</v>
       </c>
       <c r="J19">
-        <v>0.9644072787330521</v>
+        <v>1.016797546774868</v>
       </c>
       <c r="K19">
-        <v>0.9606679616387548</v>
+        <v>1.016832127879148</v>
       </c>
       <c r="L19">
-        <v>0.9654149540926793</v>
+        <v>1.016232785373023</v>
       </c>
       <c r="M19">
-        <v>0.9647684852635227</v>
+        <v>1.024859451015529</v>
       </c>
       <c r="N19">
-        <v>0.9657768476879142</v>
+        <v>1.018241515919597</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9319626497604655</v>
+        <v>1.010049470098377</v>
       </c>
       <c r="D20">
-        <v>0.9434070381638859</v>
+        <v>1.012975420922873</v>
       </c>
       <c r="E20">
-        <v>0.9484616651831496</v>
+        <v>1.012413176733018</v>
       </c>
       <c r="F20">
-        <v>0.9471474677489143</v>
+        <v>1.02097258783495</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041241471192449</v>
+        <v>1.025706996794433</v>
       </c>
       <c r="J20">
-        <v>0.9623939641351981</v>
+        <v>1.016425563665198</v>
       </c>
       <c r="K20">
-        <v>0.958523773025972</v>
+        <v>1.016431416876245</v>
       </c>
       <c r="L20">
-        <v>0.9634756211563634</v>
+        <v>1.01587123802944</v>
       </c>
       <c r="M20">
-        <v>0.9621880071012382</v>
+        <v>1.024399479062857</v>
       </c>
       <c r="N20">
-        <v>0.9637606739524008</v>
+        <v>1.017869004551244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9225069533740824</v>
+        <v>1.008423597043329</v>
       </c>
       <c r="D21">
-        <v>0.9350118234674828</v>
+        <v>1.011453099441086</v>
       </c>
       <c r="E21">
-        <v>0.9407799402105225</v>
+        <v>1.011018537394112</v>
       </c>
       <c r="F21">
-        <v>0.9372501027720541</v>
+        <v>1.019256003574281</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040400521181813</v>
+        <v>1.025692413958264</v>
       </c>
       <c r="J21">
-        <v>0.9556442204340501</v>
+        <v>1.015214351808064</v>
       </c>
       <c r="K21">
-        <v>0.951338688350208</v>
+        <v>1.015127052558808</v>
       </c>
       <c r="L21">
-        <v>0.9569773708395207</v>
+        <v>1.014694196933009</v>
       </c>
       <c r="M21">
-        <v>0.9535264894167872</v>
+        <v>1.022899591455533</v>
       </c>
       <c r="N21">
-        <v>0.9570013448409905</v>
+        <v>1.016656072634345</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9163212515617642</v>
+        <v>1.007400178378734</v>
       </c>
       <c r="D22">
-        <v>0.9295330320767093</v>
+        <v>1.010495220460842</v>
       </c>
       <c r="E22">
-        <v>0.9357697295671138</v>
+        <v>1.01014097247986</v>
       </c>
       <c r="F22">
-        <v>0.9307750670663788</v>
+        <v>1.018173734693691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039834104300889</v>
+        <v>1.025680532987075</v>
       </c>
       <c r="J22">
-        <v>0.9512303607177939</v>
+        <v>1.014451361920087</v>
       </c>
       <c r="K22">
-        <v>0.9466428121370178</v>
+        <v>1.014305680081676</v>
       </c>
       <c r="L22">
-        <v>0.9527308255850365</v>
+        <v>1.013952879820668</v>
       </c>
       <c r="M22">
-        <v>0.947855023448271</v>
+        <v>1.021953089920399</v>
       </c>
       <c r="N22">
-        <v>0.9525812169376606</v>
+        <v>1.015891999213212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9196245943082614</v>
+        <v>1.00794282527755</v>
       </c>
       <c r="D23">
-        <v>0.9324575626427741</v>
+        <v>1.011003082043762</v>
       </c>
       <c r="E23">
-        <v>0.9384438364074517</v>
+        <v>1.010606254435377</v>
       </c>
       <c r="F23">
-        <v>0.9342328709675831</v>
+        <v>1.018747751287618</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040138043821123</v>
+        <v>1.025687088264402</v>
       </c>
       <c r="J23">
-        <v>0.9535872797182503</v>
+        <v>1.014855976842653</v>
       </c>
       <c r="K23">
-        <v>0.9491500717066094</v>
+        <v>1.014741227180607</v>
       </c>
       <c r="L23">
-        <v>0.9549981225274964</v>
+        <v>1.014345987623651</v>
       </c>
       <c r="M23">
-        <v>0.9508841410732273</v>
+        <v>1.022455178663856</v>
       </c>
       <c r="N23">
-        <v>0.95494148303344</v>
+        <v>1.016297188735377</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9321173898976124</v>
+        <v>1.010076708862929</v>
       </c>
       <c r="D24">
-        <v>0.9435446251647021</v>
+        <v>1.013000930861113</v>
       </c>
       <c r="E24">
-        <v>0.948587602660771</v>
+        <v>1.012436546597748</v>
       </c>
       <c r="F24">
-        <v>0.9473094104439099</v>
+        <v>1.021001316569301</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041254952138503</v>
+        <v>1.025707195271241</v>
       </c>
       <c r="J24">
-        <v>0.9625044384486354</v>
+        <v>1.01644584557022</v>
       </c>
       <c r="K24">
-        <v>0.9586414160432235</v>
+        <v>1.01645326367051</v>
       </c>
       <c r="L24">
-        <v>0.9635820235543076</v>
+        <v>1.015890950220484</v>
       </c>
       <c r="M24">
-        <v>0.9623296422051081</v>
+        <v>1.024424566657676</v>
       </c>
       <c r="N24">
-        <v>0.9638713051520346</v>
+        <v>1.017889315258898</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9456912085837278</v>
+        <v>1.012548138142456</v>
       </c>
       <c r="D25">
-        <v>0.9556389010664615</v>
+        <v>1.01531633602014</v>
       </c>
       <c r="E25">
-        <v>0.9596630006799073</v>
+        <v>1.014557636859458</v>
       </c>
       <c r="F25">
-        <v>0.9615079955932773</v>
+        <v>1.023603709497395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042395950051437</v>
+        <v>1.025718704832526</v>
       </c>
       <c r="J25">
-        <v>0.9721954794280241</v>
+        <v>1.018284655533117</v>
       </c>
       <c r="K25">
-        <v>0.9689672527523502</v>
+        <v>1.018434662437227</v>
       </c>
       <c r="L25">
-        <v>0.9729215293501616</v>
+        <v>1.017678456280314</v>
       </c>
       <c r="M25">
-        <v>0.97473476395008</v>
+        <v>1.026695068112736</v>
       </c>
       <c r="N25">
-        <v>0.973576108521192</v>
+        <v>1.019730736542857</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_174/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014515734379126</v>
+        <v>0.9558874816218255</v>
       </c>
       <c r="D2">
-        <v>1.017160917744017</v>
+        <v>0.9647564698279419</v>
       </c>
       <c r="E2">
-        <v>1.016247304167528</v>
+        <v>0.9680187009445449</v>
       </c>
       <c r="F2">
-        <v>1.025669361290694</v>
+        <v>0.9721585027552623</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025718333119251</v>
+        <v>1.043189199179678</v>
       </c>
       <c r="J2">
-        <v>1.019746526450355</v>
+        <v>0.9794726940887363</v>
       </c>
       <c r="K2">
-        <v>1.020010933592147</v>
+        <v>0.976729663890007</v>
       </c>
       <c r="L2">
-        <v>1.019100044737615</v>
+        <v>0.9799423294085063</v>
       </c>
       <c r="M2">
-        <v>1.028494255553923</v>
+        <v>0.9840198414022936</v>
       </c>
       <c r="N2">
-        <v>1.021194683484476</v>
+        <v>0.9808636576614306</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015942431034938</v>
+        <v>0.962972725634749</v>
       </c>
       <c r="D3">
-        <v>1.018499098826531</v>
+        <v>0.9711087483549763</v>
       </c>
       <c r="E3">
-        <v>1.017473029416238</v>
+        <v>0.9738430180646793</v>
       </c>
       <c r="F3">
-        <v>1.027163534987985</v>
+        <v>0.9795473939393009</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025712513985777</v>
+        <v>1.043700839265888</v>
       </c>
       <c r="J3">
-        <v>1.020805312090053</v>
+        <v>0.9845263397503897</v>
       </c>
       <c r="K3">
-        <v>1.021153178957294</v>
+        <v>0.9821251503819701</v>
       </c>
       <c r="L3">
-        <v>1.020129944729006</v>
+        <v>0.9848218962465606</v>
       </c>
       <c r="M3">
-        <v>1.029793918524472</v>
+        <v>0.9904488358734485</v>
       </c>
       <c r="N3">
-        <v>1.022254972721227</v>
+        <v>0.9859244800795848</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016864741584167</v>
+        <v>0.9674236131723637</v>
       </c>
       <c r="D4">
-        <v>1.019364497503446</v>
+        <v>0.9751062253300788</v>
       </c>
       <c r="E4">
-        <v>1.018265668587749</v>
+        <v>0.977509341988036</v>
       </c>
       <c r="F4">
-        <v>1.028127783493812</v>
+        <v>0.9841824933912483</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02570617741944</v>
+        <v>1.044003104844838</v>
       </c>
       <c r="J4">
-        <v>1.021489217222405</v>
+        <v>0.9876990007686561</v>
       </c>
       <c r="K4">
-        <v>1.021891272667994</v>
+        <v>0.9855146810431172</v>
       </c>
       <c r="L4">
-        <v>1.020795324697716</v>
+        <v>0.9878870087296797</v>
       </c>
       <c r="M4">
-        <v>1.030631820601973</v>
+        <v>0.994475646526999</v>
       </c>
       <c r="N4">
-        <v>1.022939849077312</v>
+        <v>0.9891016466404067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017252281974536</v>
+        <v>0.969264561392029</v>
       </c>
       <c r="D5">
-        <v>1.0197281979913</v>
+        <v>0.9767612362955345</v>
       </c>
       <c r="E5">
-        <v>1.018598781937172</v>
+        <v>0.9790274830461223</v>
       </c>
       <c r="F5">
-        <v>1.028532541319648</v>
+        <v>0.9860979261091377</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025702897401982</v>
+        <v>1.044123411347449</v>
       </c>
       <c r="J5">
-        <v>1.021776448032499</v>
+        <v>0.989010706636013</v>
       </c>
       <c r="K5">
-        <v>1.022201328780118</v>
+        <v>0.9869165930330579</v>
       </c>
       <c r="L5">
-        <v>1.021074806907096</v>
+        <v>0.9891546525115522</v>
       </c>
       <c r="M5">
-        <v>1.030983345366157</v>
+        <v>0.9961381894049339</v>
       </c>
       <c r="N5">
-        <v>1.023227487788102</v>
+        <v>0.9904152152805498</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017317340227731</v>
+        <v>0.9695719433621054</v>
       </c>
       <c r="D6">
-        <v>1.019789258419248</v>
+        <v>0.9770376640815032</v>
       </c>
       <c r="E6">
-        <v>1.018654706685745</v>
+        <v>0.9792810629842577</v>
       </c>
       <c r="F6">
-        <v>1.028600466205797</v>
+        <v>0.9864176403079178</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02570231052569</v>
+        <v>1.044143218106077</v>
       </c>
       <c r="J6">
-        <v>1.021824658886026</v>
+        <v>0.9892296869761473</v>
       </c>
       <c r="K6">
-        <v>1.022253374714305</v>
+        <v>0.9871506646530648</v>
       </c>
       <c r="L6">
-        <v>1.021121719036624</v>
+        <v>0.9893663002909108</v>
       </c>
       <c r="M6">
-        <v>1.031042325298096</v>
+        <v>0.9964156020145513</v>
       </c>
       <c r="N6">
-        <v>1.02327576710657</v>
+        <v>0.9906345065978844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016869920691797</v>
+        <v>0.9674483284129125</v>
       </c>
       <c r="D7">
-        <v>1.0193693577253</v>
+        <v>0.9751284380922633</v>
       </c>
       <c r="E7">
-        <v>1.018270120099869</v>
+        <v>0.9775297168681248</v>
       </c>
       <c r="F7">
-        <v>1.028133194286379</v>
+        <v>0.9842082155465862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025706136013405</v>
+        <v>1.044004738809262</v>
       </c>
       <c r="J7">
-        <v>1.021493056320814</v>
+        <v>0.9877166130531349</v>
       </c>
       <c r="K7">
-        <v>1.02189541658435</v>
+        <v>0.985533502373852</v>
       </c>
       <c r="L7">
-        <v>1.020799060104593</v>
+        <v>0.9879040278155482</v>
       </c>
       <c r="M7">
-        <v>1.030636520552732</v>
+        <v>0.9944979787148224</v>
       </c>
       <c r="N7">
-        <v>1.022943693627681</v>
+        <v>0.9891192839363496</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014998074589893</v>
+        <v>0.9583108054864024</v>
       </c>
       <c r="D8">
-        <v>1.017613267686982</v>
+        <v>0.9669275621864728</v>
       </c>
       <c r="E8">
-        <v>1.016661647274152</v>
+        <v>0.9700090965057603</v>
       </c>
       <c r="F8">
-        <v>1.026174862394676</v>
+        <v>0.9746869723155573</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025716898558997</v>
+        <v>1.043368154896315</v>
       </c>
       <c r="J8">
-        <v>1.020104599114523</v>
+        <v>0.9812015375557257</v>
       </c>
       <c r="K8">
-        <v>1.020397173793071</v>
+        <v>0.9785749729908374</v>
       </c>
       <c r="L8">
-        <v>1.019448320848024</v>
+        <v>0.9816112449825124</v>
       </c>
       <c r="M8">
-        <v>1.028934120712789</v>
+        <v>0.9862211042592416</v>
       </c>
       <c r="N8">
-        <v>1.021553264652899</v>
+        <v>0.9825949562844443</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011692789586293</v>
+        <v>0.9410946432946605</v>
       </c>
       <c r="D9">
-        <v>1.014514798357592</v>
+        <v>0.9515377993358399</v>
       </c>
       <c r="E9">
-        <v>1.013823382982949</v>
+        <v>0.9559062855900446</v>
       </c>
       <c r="F9">
-        <v>1.022703994053582</v>
+        <v>0.956701784262326</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025716195644615</v>
+        <v>1.042019365992608</v>
       </c>
       <c r="J9">
-        <v>1.017648573175214</v>
+        <v>0.9689138759579935</v>
       </c>
       <c r="K9">
-        <v>1.017749094304407</v>
+        <v>0.9654693297797265</v>
       </c>
       <c r="L9">
-        <v>1.017060042384645</v>
+        <v>0.9697576985875563</v>
       </c>
       <c r="M9">
-        <v>1.025910564019418</v>
+        <v>0.9705387103887302</v>
       </c>
       <c r="N9">
-        <v>1.019093750875045</v>
+        <v>0.970289844797829</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009484258547581</v>
+        <v>0.9287250026948533</v>
       </c>
       <c r="D10">
-        <v>1.012446127802575</v>
+        <v>0.9405297732543634</v>
       </c>
       <c r="E10">
-        <v>1.011928283348431</v>
+        <v>0.9458283361169105</v>
       </c>
       <c r="F10">
-        <v>1.020376235852606</v>
+        <v>0.9437588766123468</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02570253460563</v>
+        <v>1.040957238882508</v>
       </c>
       <c r="J10">
-        <v>1.016004634410336</v>
+        <v>0.9600825900145084</v>
       </c>
       <c r="K10">
-        <v>1.015978047787012</v>
+        <v>0.9560627411792506</v>
       </c>
       <c r="L10">
-        <v>1.015462151133398</v>
+        <v>0.961249769537056</v>
       </c>
       <c r="M10">
-        <v>1.023878601063714</v>
+        <v>0.9592236748996925</v>
       </c>
       <c r="N10">
-        <v>1.017447477528559</v>
+        <v>0.9614460174153412</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008526662915644</v>
+        <v>0.9231195716005294</v>
       </c>
       <c r="D11">
-        <v>1.011549580244184</v>
+        <v>0.9355549994134682</v>
       </c>
       <c r="E11">
-        <v>1.011106927608108</v>
+        <v>0.9412767902844659</v>
       </c>
       <c r="F11">
-        <v>1.019364922060666</v>
+        <v>0.9378913875195004</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025693496169847</v>
+        <v>1.040455963222358</v>
       </c>
       <c r="J11">
-        <v>1.015291165930345</v>
+        <v>0.95608144535697</v>
       </c>
       <c r="K11">
-        <v>1.015209756964894</v>
+        <v>0.9518039602167568</v>
       </c>
       <c r="L11">
-        <v>1.014768835397501</v>
+        <v>0.9573981443988991</v>
       </c>
       <c r="M11">
-        <v>1.022994810329474</v>
+        <v>0.9540879919626086</v>
       </c>
       <c r="N11">
-        <v>1.01673299584149</v>
+        <v>0.9574391906734515</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008170768101115</v>
+        <v>0.9209962792256621</v>
       </c>
       <c r="D12">
-        <v>1.011216436068369</v>
+        <v>0.9336728262545033</v>
       </c>
       <c r="E12">
-        <v>1.010801719038985</v>
+        <v>0.9395552410395042</v>
       </c>
       <c r="F12">
-        <v>1.018988759944971</v>
+        <v>0.9356687364861085</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025689670088849</v>
+        <v>1.040263282644575</v>
       </c>
       <c r="J12">
-        <v>1.01502590131766</v>
+        <v>0.9545661146636674</v>
       </c>
       <c r="K12">
-        <v>1.014924161077123</v>
+        <v>0.9501915116609454</v>
       </c>
       <c r="L12">
-        <v>1.014511088918054</v>
+        <v>0.9559399251422842</v>
       </c>
       <c r="M12">
-        <v>1.022665933168186</v>
+        <v>0.9521417029070498</v>
       </c>
       <c r="N12">
-        <v>1.016467354522629</v>
+        <v>0.9559217080367535</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008247117975416</v>
+        <v>0.9214536619254048</v>
       </c>
       <c r="D13">
-        <v>1.011287902451848</v>
+        <v>0.9340781651086941</v>
       </c>
       <c r="E13">
-        <v>1.010867192854159</v>
+        <v>0.9399259648742853</v>
       </c>
       <c r="F13">
-        <v>1.019069471427794</v>
+        <v>0.936147522206319</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025690512004175</v>
+        <v>1.040304911440191</v>
       </c>
       <c r="J13">
-        <v>1.015082812907864</v>
+        <v>0.9548925204026123</v>
       </c>
       <c r="K13">
-        <v>1.014985432343158</v>
+        <v>0.9505388162190953</v>
       </c>
       <c r="L13">
-        <v>1.014566386366101</v>
+        <v>0.9562540065252756</v>
       </c>
       <c r="M13">
-        <v>1.022736505596643</v>
+        <v>0.9525609941150134</v>
       </c>
       <c r="N13">
-        <v>1.01652434693382</v>
+        <v>0.9562485773092871</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008497248688079</v>
+        <v>0.9229449231727911</v>
       </c>
       <c r="D14">
-        <v>1.011522045060138</v>
+        <v>0.9354001375411538</v>
       </c>
       <c r="E14">
-        <v>1.011081701462394</v>
+        <v>0.9411351337753704</v>
       </c>
       <c r="F14">
-        <v>1.019333838935127</v>
+        <v>0.9377085668636167</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025693189465947</v>
+        <v>1.040440170153499</v>
       </c>
       <c r="J14">
-        <v>1.015269244219557</v>
+        <v>0.9559567975860346</v>
       </c>
       <c r="K14">
-        <v>1.015186154009716</v>
+        <v>0.9516713144969471</v>
       </c>
       <c r="L14">
-        <v>1.014747534472642</v>
+        <v>0.9572781844673234</v>
       </c>
       <c r="M14">
-        <v>1.022967637475574</v>
+        <v>0.9539279198437456</v>
       </c>
       <c r="N14">
-        <v>1.016711042999359</v>
+        <v>0.957314365888384</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008651335586056</v>
+        <v>0.9238581606269436</v>
       </c>
       <c r="D15">
-        <v>1.011666291095762</v>
+        <v>0.9362100028026924</v>
       </c>
       <c r="E15">
-        <v>1.011213851165168</v>
+        <v>0.9418759609451722</v>
       </c>
       <c r="F15">
-        <v>1.019496655995158</v>
+        <v>0.9386645346865621</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025694777029423</v>
+        <v>1.040522639584185</v>
       </c>
       <c r="J15">
-        <v>1.0153840773264</v>
+        <v>0.9566085932699859</v>
       </c>
       <c r="K15">
-        <v>1.015309796131759</v>
+        <v>0.9523649507718364</v>
       </c>
       <c r="L15">
-        <v>1.01485911674117</v>
+        <v>0.9579054868620143</v>
       </c>
       <c r="M15">
-        <v>1.023109966030379</v>
+        <v>0.9547649015867262</v>
       </c>
       <c r="N15">
-        <v>1.016826039182385</v>
+        <v>0.9579670871969689</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009547783234548</v>
+        <v>0.9290914571473704</v>
       </c>
       <c r="D16">
-        <v>1.012505611322986</v>
+        <v>0.9408552953482399</v>
       </c>
       <c r="E16">
-        <v>1.011982777433198</v>
+        <v>0.9461262296681023</v>
       </c>
       <c r="F16">
-        <v>1.020443281588223</v>
+        <v>0.9441424363645133</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025703068691744</v>
+        <v>1.040989613128265</v>
       </c>
       <c r="J16">
-        <v>1.016051950112728</v>
+        <v>0.9603441935907628</v>
       </c>
       <c r="K16">
-        <v>1.016029006397017</v>
+        <v>0.9563412521070447</v>
       </c>
       <c r="L16">
-        <v>1.015508133902475</v>
+        <v>0.9615016621699557</v>
       </c>
       <c r="M16">
-        <v>1.023937171844764</v>
+        <v>0.9595592748028705</v>
       </c>
       <c r="N16">
-        <v>1.017494860424676</v>
+        <v>0.9617079924986802</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010109751083007</v>
+        <v>0.9323049415764632</v>
       </c>
       <c r="D17">
-        <v>1.013031876180644</v>
+        <v>0.9437113951802051</v>
       </c>
       <c r="E17">
-        <v>1.012464895838376</v>
+        <v>0.9487402540575568</v>
       </c>
       <c r="F17">
-        <v>1.021036164875737</v>
+        <v>0.9475056903044404</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025707433980311</v>
+        <v>1.041271278619458</v>
       </c>
       <c r="J17">
-        <v>1.016470448266561</v>
+        <v>0.9626383385036743</v>
       </c>
       <c r="K17">
-        <v>1.016479764860676</v>
+        <v>0.9587840068462976</v>
       </c>
       <c r="L17">
-        <v>1.015914861943557</v>
+        <v>0.9637109901835867</v>
       </c>
       <c r="M17">
-        <v>1.024454997566233</v>
+        <v>0.9625013045729146</v>
       </c>
       <c r="N17">
-        <v>1.01791395289389</v>
+        <v>0.9640053953605102</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010437413762242</v>
+        <v>0.9341555364877446</v>
       </c>
       <c r="D18">
-        <v>1.013338760856178</v>
+        <v>0.9453574442748911</v>
       </c>
       <c r="E18">
-        <v>1.012746033903416</v>
+        <v>0.9502470572445371</v>
       </c>
       <c r="F18">
-        <v>1.021381658139332</v>
+        <v>0.9494423042635994</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025709678817867</v>
+        <v>1.041431597945417</v>
       </c>
       <c r="J18">
-        <v>1.016714394051073</v>
+        <v>0.963959569462612</v>
       </c>
       <c r="K18">
-        <v>1.016742548413554</v>
+        <v>0.9601911070327678</v>
       </c>
       <c r="L18">
-        <v>1.016151963029983</v>
+        <v>0.9649836550071071</v>
       </c>
       <c r="M18">
-        <v>1.024756657086487</v>
+        <v>0.9641947871066627</v>
       </c>
       <c r="N18">
-        <v>1.018158245109397</v>
+        <v>0.9653285026189569</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010549117528</v>
+        <v>0.9347826139663912</v>
       </c>
       <c r="D19">
-        <v>1.013443387779851</v>
+        <v>0.9459154207448088</v>
       </c>
       <c r="E19">
-        <v>1.012841882427299</v>
+        <v>0.9507578761313336</v>
       </c>
       <c r="F19">
-        <v>1.02149940742302</v>
+        <v>0.9500984833148963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025710393120453</v>
+        <v>1.041485596691586</v>
       </c>
       <c r="J19">
-        <v>1.016797546774868</v>
+        <v>0.9644072787330512</v>
       </c>
       <c r="K19">
-        <v>1.016832127879148</v>
+        <v>0.9606679616387537</v>
       </c>
       <c r="L19">
-        <v>1.016232785373023</v>
+        <v>0.965414954092678</v>
       </c>
       <c r="M19">
-        <v>1.024859451015529</v>
+        <v>0.9647684852635219</v>
       </c>
       <c r="N19">
-        <v>1.018241515919597</v>
+        <v>0.9657768476879132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010049470098377</v>
+        <v>0.9319626497604636</v>
       </c>
       <c r="D20">
-        <v>1.012975420922873</v>
+        <v>0.9434070381638842</v>
       </c>
       <c r="E20">
-        <v>1.012413176733018</v>
+        <v>0.9484616651831478</v>
       </c>
       <c r="F20">
-        <v>1.02097258783495</v>
+        <v>0.9471474677489129</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025706996794433</v>
+        <v>1.041241471192449</v>
       </c>
       <c r="J20">
-        <v>1.016425563665198</v>
+        <v>0.9623939641351966</v>
       </c>
       <c r="K20">
-        <v>1.016431416876245</v>
+        <v>0.9585237730259704</v>
       </c>
       <c r="L20">
-        <v>1.01587123802944</v>
+        <v>0.9634756211563619</v>
       </c>
       <c r="M20">
-        <v>1.024399479062857</v>
+        <v>0.9621880071012371</v>
       </c>
       <c r="N20">
-        <v>1.017869004551244</v>
+        <v>0.9637606739523989</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008423597043329</v>
+        <v>0.9225069533740825</v>
       </c>
       <c r="D21">
-        <v>1.011453099441086</v>
+        <v>0.9350118234674829</v>
       </c>
       <c r="E21">
-        <v>1.011018537394112</v>
+        <v>0.9407799402105225</v>
       </c>
       <c r="F21">
-        <v>1.019256003574281</v>
+        <v>0.9372501027720542</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025692413958264</v>
+        <v>1.040400521181813</v>
       </c>
       <c r="J21">
-        <v>1.015214351808064</v>
+        <v>0.9556442204340502</v>
       </c>
       <c r="K21">
-        <v>1.015127052558808</v>
+        <v>0.951338688350208</v>
       </c>
       <c r="L21">
-        <v>1.014694196933009</v>
+        <v>0.9569773708395206</v>
       </c>
       <c r="M21">
-        <v>1.022899591455533</v>
+        <v>0.9535264894167874</v>
       </c>
       <c r="N21">
-        <v>1.016656072634345</v>
+        <v>0.9570013448409909</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007400178378734</v>
+        <v>0.9163212515617638</v>
       </c>
       <c r="D22">
-        <v>1.010495220460842</v>
+        <v>0.9295330320767091</v>
       </c>
       <c r="E22">
-        <v>1.01014097247986</v>
+        <v>0.9357697295671141</v>
       </c>
       <c r="F22">
-        <v>1.018173734693691</v>
+        <v>0.9307750670663785</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025680532987075</v>
+        <v>1.039834104300889</v>
       </c>
       <c r="J22">
-        <v>1.014451361920087</v>
+        <v>0.9512303607177939</v>
       </c>
       <c r="K22">
-        <v>1.014305680081676</v>
+        <v>0.9466428121370176</v>
       </c>
       <c r="L22">
-        <v>1.013952879820668</v>
+        <v>0.9527308255850369</v>
       </c>
       <c r="M22">
-        <v>1.021953089920399</v>
+        <v>0.9478550234482708</v>
       </c>
       <c r="N22">
-        <v>1.015891999213212</v>
+        <v>0.9525812169376604</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00794282527755</v>
+        <v>0.9196245943082622</v>
       </c>
       <c r="D23">
-        <v>1.011003082043762</v>
+        <v>0.9324575626427749</v>
       </c>
       <c r="E23">
-        <v>1.010606254435377</v>
+        <v>0.9384438364074521</v>
       </c>
       <c r="F23">
-        <v>1.018747751287618</v>
+        <v>0.9342328709675832</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025687088264402</v>
+        <v>1.040138043821123</v>
       </c>
       <c r="J23">
-        <v>1.014855976842653</v>
+        <v>0.953587279718251</v>
       </c>
       <c r="K23">
-        <v>1.014741227180607</v>
+        <v>0.9491500717066103</v>
       </c>
       <c r="L23">
-        <v>1.014345987623651</v>
+        <v>0.9549981225274969</v>
       </c>
       <c r="M23">
-        <v>1.022455178663856</v>
+        <v>0.9508841410732277</v>
       </c>
       <c r="N23">
-        <v>1.016297188735377</v>
+        <v>0.9549414830334405</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010076708862929</v>
+        <v>0.9321173898976131</v>
       </c>
       <c r="D24">
-        <v>1.013000930861113</v>
+        <v>0.9435446251647026</v>
       </c>
       <c r="E24">
-        <v>1.012436546597748</v>
+        <v>0.9485876026607716</v>
       </c>
       <c r="F24">
-        <v>1.021001316569301</v>
+        <v>0.9473094104439109</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025707195271241</v>
+        <v>1.041254952138503</v>
       </c>
       <c r="J24">
-        <v>1.01644584557022</v>
+        <v>0.9625044384486361</v>
       </c>
       <c r="K24">
-        <v>1.01645326367051</v>
+        <v>0.9586414160432242</v>
       </c>
       <c r="L24">
-        <v>1.015890950220484</v>
+        <v>0.9635820235543081</v>
       </c>
       <c r="M24">
-        <v>1.024424566657676</v>
+        <v>0.962329642205109</v>
       </c>
       <c r="N24">
-        <v>1.017889315258898</v>
+        <v>0.9638713051520351</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012548138142456</v>
+        <v>0.9456912085837273</v>
       </c>
       <c r="D25">
-        <v>1.01531633602014</v>
+        <v>0.9556389010664612</v>
       </c>
       <c r="E25">
-        <v>1.014557636859458</v>
+        <v>0.959663000679907</v>
       </c>
       <c r="F25">
-        <v>1.023603709497395</v>
+        <v>0.9615079955932767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025718704832526</v>
+        <v>1.042395950051437</v>
       </c>
       <c r="J25">
-        <v>1.018284655533117</v>
+        <v>0.9721954794280238</v>
       </c>
       <c r="K25">
-        <v>1.018434662437227</v>
+        <v>0.9689672527523499</v>
       </c>
       <c r="L25">
-        <v>1.017678456280314</v>
+        <v>0.9729215293501613</v>
       </c>
       <c r="M25">
-        <v>1.026695068112736</v>
+        <v>0.9747347639500793</v>
       </c>
       <c r="N25">
-        <v>1.019730736542857</v>
+        <v>0.9735761085211917</v>
       </c>
     </row>
   </sheetData>
